--- a/biology/Botanique/Rosier_de_Lady_Banks/Rosier_de_Lady_Banks.xlsx
+++ b/biology/Botanique/Rosier_de_Lady_Banks/Rosier_de_Lady_Banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rosier de Lady Banks (Rosa banksiae) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier originaire du centre et de l'Ouest de la Chine, dans les provinces de Gansu, Guizhou, Henan, Hubei, de Jiangsu, Sichuan et Yunnan. On l'y trouve dans les régions montagneuses à des altitudes comprises entre 500 et 2 200 mètres.
 C'est l'unique espèce constituant la section des Banksianae du sous-genre Eurosa.
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau grimpant, aux longues tiges sarmenteuses qui croissent vigoureusement s'élevant sur les autres arbrisseaux et arbustes jusqu'à six mètres de haut.
 À la différence de la plupart des rosiers, il est pratiquement inerme, bien qu'il puisse porter quelques aiguillons de 5 mm de long, particulièrement sur les tiges les plus fortes.
@@ -550,7 +564,9 @@
           <t>Rosa banksiae, mutations et hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa banksiae a probablement été cultivé dans les jardins chinois pendant des centaines d'années. L'espèce a été introduite en Europe par William Kerr, à qui elle lui avait été envoyée à l'occasion d'une expédition botanique organisée par Joseph Banks.
 Ce dernier avait acquis en 1807 le premier rosier de Lady Banks, Rosa banksiae var. banksiae, à la célèbre pépinière Fa Tee près de Canton. Nombre d'autres formes cultivées en Chine ont été découvertes par la suite :
@@ -559,7 +575,7 @@
 Rosa banksiae var. banksiae f. lutea (Lindley) Rehder (Bibliogr. 316. 1949; R. banksiae var. lutea Lindley, Bot. Reg. 13: 1105. 1827). Probablement le plus populaire (apporté en Europe en 1824 par J. D. Parks), aux fleurs doubles ou semi-doubles, jaunes, sans odeur.
 hybrides :
 Rosa fortunia (Rosa banksiae × Rosa laevigata) aux grandes fleurs doubles crème, non remontant.
-Rosa cymona grimpant non remontant à nombreuses petites fleurs blanches en corymbes[1]
+Rosa cymona grimpant non remontant à nombreuses petites fleurs blanches en corymbes
 Rosa banksiae 'Rosea Plena' hybride récent aux fleurs roses doubles.
 			Rose 'Lady Banks' en pleine floraison.
 			Bouton
